--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,139 +58,139 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>hand</t>
@@ -784,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1016,7 +1016,7 @@
         <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1116,7 +1116,7 @@
         <v>448</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>0.9482758620689655</v>
@@ -1141,32 +1141,8 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1044776119402985</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>220</v>
-      </c>
-      <c r="E9">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>120</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>0.9444444444444444</v>
@@ -1192,7 +1168,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>0.9333333333333333</v>
@@ -1218,7 +1194,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>0.9333333333333333</v>
@@ -1244,7 +1220,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>0.9333333333333333</v>
@@ -1270,7 +1246,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>0.9166666666666666</v>
@@ -1296,7 +1272,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0.8974358974358975</v>
@@ -1322,7 +1298,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>0.8899082568807339</v>
@@ -1348,7 +1324,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>0.8888888888888888</v>
@@ -1374,7 +1350,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0.8823529411764706</v>
@@ -1400,7 +1376,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
         <v>0.8740157480314961</v>
@@ -1426,7 +1402,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
         <v>0.8666666666666667</v>
@@ -1452,7 +1428,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.85</v>
@@ -1478,7 +1454,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
         <v>0.8421052631578947</v>
@@ -1504,7 +1480,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
         <v>0.8260869565217391</v>
@@ -1530,7 +1506,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
         <v>0.8214285714285714</v>
@@ -1556,7 +1532,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <v>0.8181818181818182</v>
@@ -1582,7 +1558,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>0.8142857142857143</v>
@@ -1608,7 +1584,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>0.8141025641025641</v>
@@ -1634,7 +1610,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>0.8085106382978723</v>
@@ -1660,7 +1636,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
         <v>0.8076923076923077</v>
@@ -1686,7 +1662,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>0.8</v>
@@ -1712,7 +1688,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>0.7936507936507936</v>
@@ -1738,7 +1714,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>0.77</v>
@@ -1764,42 +1740,42 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.7444933920704846</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L32">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="M32">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="N32">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O32">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.7333333333333333</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L33">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>0.9399999999999999</v>
@@ -1811,116 +1787,116 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.7222222222222222</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="N35">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O35">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.7121212121212122</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L36">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N36">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="O36">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="M37">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="N37">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
         <v>0.7058823529411765</v>
@@ -1946,7 +1922,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
         <v>0.6521739130434783</v>
@@ -1972,7 +1948,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
         <v>0.65</v>
@@ -1998,7 +1974,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41">
         <v>0.64</v>
@@ -2024,7 +2000,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42">
         <v>0.6363636363636364</v>
@@ -2050,28 +2026,28 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>0.6319018404907976</v>
+        <v>0.625</v>
       </c>
       <c r="L43">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="M43">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>120</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2079,25 +2055,25 @@
         <v>56</v>
       </c>
       <c r="K44">
-        <v>0.625</v>
+        <v>0.6188811188811189</v>
       </c>
       <c r="L44">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="M44">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="N44">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O44">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2105,13 +2081,13 @@
         <v>57</v>
       </c>
       <c r="K45">
-        <v>0.6188811188811189</v>
+        <v>0.6162790697674418</v>
       </c>
       <c r="L45">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="M45">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="N45">
         <v>0.95</v>
@@ -2123,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>109</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2131,25 +2107,25 @@
         <v>58</v>
       </c>
       <c r="K46">
-        <v>0.6162790697674418</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L46">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="M46">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="10:17">
